--- a/Practises.xlsx
+++ b/Practises.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bpn03/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A473E32-315D-6B4A-B4B1-F63E310DBC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770FE50F-4391-BD45-ACA1-1B5580F31004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16940" xr2:uid="{2CAA46EA-9A51-284D-9D07-C3F2DEA9D638}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16940" activeTab="2" xr2:uid="{2CAA46EA-9A51-284D-9D07-C3F2DEA9D638}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1_Day3" sheetId="1" r:id="rId1"/>
     <sheet name="Week1_Day2" sheetId="2" r:id="rId2"/>
+    <sheet name="Week2_Day1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="176">
   <si>
     <t>chatGPT</t>
   </si>
@@ -287,12 +288,1824 @@
   <si>
     <t>llama-guard-4-12b</t>
   </si>
+  <si>
+    <t>Homework Assignment</t>
+  </si>
+  <si>
+    <t>1) Contruct a Prompt with instruction and context --Generate manual testcases for any banking </t>
+  </si>
+  <si>
+    <t>application Paymenttrasction (account to account)</t>
+  </si>
+  <si>
+    <t>Five testcases Positive and negative with steps and expected results</t>
+  </si>
+  <si>
+    <t>European ,African and Asian region</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>You are AI Assistant, Generate manual test case for European banking application, You are an Expert in banking domain</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>-Test scenario is ‘Payment transactions as account to account’</t>
+  </si>
+  <si>
+    <t>-Up to 5 test cases covering domain specific strategic expectations ( edge cases, happy path &amp; Security, etc)</t>
+  </si>
+  <si>
+    <t>-Use IEEE standard test case template</t>
+  </si>
+  <si>
+    <t>Output -Gemini</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>TC-AAT-001</t>
+  </si>
+  <si>
+    <t>TC-AAT-002</t>
+  </si>
+  <si>
+    <t>TC-AAT-003</t>
+  </si>
+  <si>
+    <t>TC-AAT-004</t>
+  </si>
+  <si>
+    <t>TC-AAT-005</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Payment transactions as account to account</t>
+  </si>
+  <si>
+    <t>Test Case Title</t>
+  </si>
+  <si>
+    <t>Happy Path: Standard SEPA Transfer</t>
+  </si>
+  <si>
+    <t>Edge Case: Daily Limit Breach</t>
+  </si>
+  <si>
+    <t>Edge Case: Invalid Beneficiary IBAN Format</t>
+  </si>
+  <si>
+    <t>Security: High-Value/Cross-Border 2FA</t>
+  </si>
+  <si>
+    <t>Compliance: Sanctioned/Blocked Beneficiary</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>High (P1)</t>
+  </si>
+  <si>
+    <t>Medium (P2)</t>
+  </si>
+  <si>
+    <t>Critical (P0)</t>
+  </si>
+  <si>
+    <t>Pre-Conditions</t>
+  </si>
+  <si>
+    <t>1. User is logged in to their banking account. 2. Account balance is sufficient (e.g., &gt; €500). 3. Beneficiary (Receiver) IBAN is a valid SEPA-zone bank account.</t>
+  </si>
+  <si>
+    <t>1. User is logged in. 2. User has a defined Daily Transfer Limit (DTL) of €5,000. 3. Account balance is sufficient (e.g., &gt; €10,000).</t>
+  </si>
+  <si>
+    <t>1. User is logged in. 2. Account balance is sufficient.</t>
+  </si>
+  <si>
+    <t>1. User is logged in. 2. Account balance is sufficient. 3. Transfer amount is high-value (e.g., &gt; €10,000 or outside SEPA/EEA).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. User is logged in. 2. Account balance is sufficient. 3. A test beneficiary is configured in the system as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Blocked"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or on a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Sanctioned List"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (for testing purposes).</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>1. Navigate to the 'Payments' section. 2. Select 'New Transfer'. 3. Enter a standard amount (e.g., €500). 4. Input a valid SEPA IBAN (e.g., DE12...). 5. Input a standard reference/description. 6. Select 'Immediate' execution. 7. Confirm the transaction details (1st confirmation). 8. Approve with standard 2FA (e.g., App Push Notification).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to 'New Transfer'. 2. Enter an amount that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>exceeds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the DTL (e.g., €5,001). 3. Input a valid IBAN. 4. Click 'Confirm'.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to 'New Transfer'. 2. Enter a valid amount (e.g., €100). 3. Input an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>intentionally invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IBAN (e.g., missing check digits, incorrect country code prefix like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>GB12...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>IT12...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>). 4. Click 'Confirm' or attempt to proceed to the next step.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Navigate to 'New Transfer'. 2. Enter a high-value amount (e.g., €15,000). 3. Input a valid, non-SEPA IBAN (e.g., outside the EU, requiring SWIFT/BIC). 4. Click 'Confirm'. 5. Verify the required authentication method.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to 'New Transfer'. 2. Enter a valid amount (e.g., €100). 3. Input the IBAN of the pre-configured </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sanctioned Beneficiary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. 4. Click 'Confirm' or attempt to proceed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. System accepts input and displays the correct transaction summary. 2. After 2FA approval, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Success Confirmation Message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is displayed. 3. The account balance is debited by €500. 4. The transaction status is immediately set to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Processing'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Sent'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. System immediately displays a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>clear error message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> stating: "Transaction exceeds your maximum daily limit of €5,000." 2. The user is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prevented</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from proceeding to the confirmation/2FA step. 3. Account balance remains unchanged.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. An </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>inline validation error message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is displayed immediately upon losing focus on the IBAN field, such as: "Invalid IBAN format. Please check the country code and length." 2. The 'Confirm' button remains disabled or the user is blocked from proceeding.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. System calculates and displays necessary transfer fees (if applicable). 2. Upon confirmation (Step 4), the system </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>must prompt for enhanced 2FA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (e.g., full password entry + 2FA code, or physical hardware token confirmation). 3. The transaction is successfully submitted only after enhanced authentication.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The system must immediately </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>block the transaction attempt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. 2. An error message is displayed: "This transfer cannot be processed. The beneficiary account is associated with a restricted entity." (Or a similarly worded security message). 3. The transaction is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> created, logged, or sent for processing. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Crucial AML check)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass/Fail Criteria</t>
+  </si>
+  <si>
+    <t>Transaction is successfully submitted and debited.</t>
+  </si>
+  <si>
+    <t>User is explicitly blocked and informed of the limit breach.</t>
+  </si>
+  <si>
+    <t>User is prevented from submission due to robust field-level validation.</t>
+  </si>
+  <si>
+    <t>System enforces a higher level of authentication before high-value/cross-border submission.</t>
+  </si>
+  <si>
+    <t>Transaction is immediately blocked and the attempt is logged as a security event.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>[Not Run / Pass / Fail]</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>2) Construct a prompt to generate playwright script create lead page only with mandatory fields instruction
+https://try.playwright.tech</t>
+  </si>
+  <si>
+    <t>// Define the base URL and credentials</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> { test, expect, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'@playwright/test'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>BASE_URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'http://leaftaps.com/opentaps/control/main'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>USERNAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'demosalesmanager'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>PASSWORD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'crmsfa'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>test.describe(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Leaftaps CRM Lead Creation Test'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, () =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>test(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Should log in and create a lead with mandatory fields'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ({ page }) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t>// --- 1. Launch URL and Login ---</t>
+  </si>
+  <si>
+    <r>
+      <t>console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">`Navigating to: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>BASE_URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.goto(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>BASE_URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// Locators based on Login_DOM:</t>
+  </si>
+  <si>
+    <t>// Username field has id="username" and name="USERNAME"</t>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.fill(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#username'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>USERNAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// Password field has id="password" and name="PASSWORD"</t>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.fill(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#password'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>PASSWORD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// Login button has value="Login" and type="submit"</t>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.click(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'input[value="Login"]'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// --- 2. Navigate to Create Lead Page ---</t>
+  </si>
+  <si>
+    <t>// Click on the CRM/SFA link (assuming it's the next step after login)</t>
+  </si>
+  <si>
+    <t>// I will use text content for this navigation link as the DOM for this specific step was not provided.</t>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.click(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'text=CRM/SFA'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// Click on the 'Leads' tab/link</t>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.click(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'text=Leads'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// Click on the 'Create Lead' link</t>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.click(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'text=Create Lead'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// Wait for the createLead form page to load</t>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.waitForURL(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'**/crmsfa/control/createLeadForm'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Navigated to Create Lead page.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// --- 3. Create Lead with Mandatory Fields ---</t>
+  </si>
+  <si>
+    <t>// Based on Lead_DOM, mandatory fields have &lt;span class="requiredField"&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> companyNameField = page.locator(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#createLeadForm_companyName'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> firstNameField = page.locator(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#createLeadForm_firstName'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lastNameField = page.locator(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#createLeadForm_lastName'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// Mandatory Field 1: Company Name</t>
+  </si>
+  <si>
+    <t>// Input has id="createLeadForm_companyName" and name="companyName"</t>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> companyName = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>`TestCompany_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.now()}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> companyNameField.fill(companyName);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">`Filled Company Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>${companyName}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// Mandatory Field 2: Forename (First Name)</t>
+  </si>
+  <si>
+    <t>// Input has id="createLeadForm_firstName" and name="firstName"</t>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> firstName = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Playwright'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> firstNameField.fill(firstName);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">`Filled First Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>${firstName}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// Mandatory Field 3: Surname (Last Name)</t>
+  </si>
+  <si>
+    <t>// Input has id="createLeadForm_lastName" and name="lastName"</t>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lastName = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'TestLead'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lastNameField.fill(lastName);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">`Filled Last Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>${lastName}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// Locate the Create Lead submit button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// The DOM shows the form action is "/crmsfa/control/createLead", but the submit button is often outside the Lead_DOM snippet. </t>
+  </si>
+  <si>
+    <t>// A common pattern is a submit button with value="Create Lead" or similar text.</t>
+  </si>
+  <si>
+    <t>// Assuming a common submit button after the form:</t>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> createLeadButton = page.locator(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'input[type="submit"][value="Create Lead"]'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// An alternative selector based on the form's submit action might be safer if the button is within the general form context but not in the snippet:</t>
+  </si>
+  <si>
+    <t>// We will stick to the value selector as it's the most common submit pattern in this application type.</t>
+  </si>
+  <si>
+    <t>// Click the Create Lead button</t>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> createLeadButton.click();</t>
+    </r>
+  </si>
+  <si>
+    <t>// Await the navigation to the Lead View page (assuming a successful creation)</t>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page.waitForURL(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'**/crmsfa/control/viewLead*'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Successfully clicked Create Lead and navigated to the view page.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// --- 4. Validation (Optional but Recommended) ---</t>
+  </si>
+  <si>
+    <t>// Validate that the lead was created successfully by checking the Company Name on the view page.</t>
+  </si>
+  <si>
+    <t>// Assuming the Company Name will be displayed on the final page.</t>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> expect(page.locator(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#viewLead_companyName_sp'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)).toContainText(companyName);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Lead creation successfully verified!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>https://try.playwright.tech/?l=playwright-test&amp;s=81n52g3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,6 +2127,61 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444746"/>
+      <name val="Google Sans Text"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA31515"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -358,7 +2226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -378,6 +2246,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,93 +2602,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A80F9C3-E8A5-1646-B5E0-74A1316EDF13}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="67.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="17">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="34">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="51">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="34">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="51">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="34">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="34">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="17">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="85">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="17">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="68">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="17">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="34">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="17">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="17">
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
@@ -810,7 +2696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="102">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -821,7 +2707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="409.6">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -832,7 +2718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="51">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -840,12 +2726,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="17">
       <c r="A32" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="51">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -853,7 +2739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="17">
       <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
@@ -861,7 +2747,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="17">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -869,17 +2755,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="17">
       <c r="A37" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="17">
       <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="17">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
@@ -887,7 +2773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="17">
       <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
@@ -895,7 +2781,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="17">
       <c r="A42" s="6" t="s">
         <v>48</v>
       </c>
@@ -915,81 +2801,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B735BE-09FC-9745-82A9-F9DC1D865EFE}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="64.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="289" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="289">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="221" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="221">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="409.5">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -997,4 +2883,671 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CFDD4A-93BD-1740-887C-B2E6AD0178D2}">
+  <dimension ref="A1:F112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="43.33203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="43.33203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17">
+      <c r="A1" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="51">
+      <c r="A4" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="34">
+      <c r="A5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="34">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17">
+      <c r="A7" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17">
+      <c r="A9" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="51">
+      <c r="A10" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="17">
+      <c r="A12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="34">
+      <c r="A13" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="51">
+      <c r="A14" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="17">
+      <c r="A15" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17">
+      <c r="A18" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17">
+      <c r="A20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17">
+      <c r="A21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="34">
+      <c r="A23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17">
+      <c r="A24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="68">
+      <c r="A25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="136">
+      <c r="A26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="136">
+      <c r="A27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="51">
+      <c r="A28" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17">
+      <c r="A29" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17">
+      <c r="A30" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="33" spans="1:2" ht="68">
+      <c r="A33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{F3100B9B-4BE6-F94B-B4A2-F779D04C86F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Practises.xlsx
+++ b/Practises.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bpn03/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770FE50F-4391-BD45-ACA1-1B5580F31004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F01DD2-4D6A-B84E-BCD7-4BD3524EAA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16940" activeTab="2" xr2:uid="{2CAA46EA-9A51-284D-9D07-C3F2DEA9D638}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16940" activeTab="3" xr2:uid="{2CAA46EA-9A51-284D-9D07-C3F2DEA9D638}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1_Day3" sheetId="1" r:id="rId1"/>
     <sheet name="Week1_Day2" sheetId="2" r:id="rId2"/>
     <sheet name="Week2_Day1" sheetId="3" r:id="rId3"/>
+    <sheet name="Week2_Day2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="180">
   <si>
     <t>chatGPT</t>
   </si>
@@ -2099,6 +2100,18 @@
   </si>
   <si>
     <t>https://try.playwright.tech/?l=playwright-test&amp;s=81n52g3</t>
+  </si>
+  <si>
+    <t>Home Assignment</t>
+  </si>
+  <si>
+    <t>1) Writen an Emotional Prompt for creating your resume</t>
+  </si>
+  <si>
+    <t>2) Write a chain of Thought prompting for developing testAutomation framework scratch -Project structure/ Test strategy</t>
+  </si>
+  <si>
+    <t>AI Persona: Act as a Senior Automation Architect. Your goal is to guide the user through designing a highly scalable and robust Selenium TestNG/Java framework (v4.x.x). You must use an iterative, multi-step Q&amp;A process.</t>
   </si>
 </sst>
 </file>
@@ -2875,7 +2888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="409.5">
+    <row r="23" spans="1:1" ht="409.6">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -2889,7 +2902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CFDD4A-93BD-1740-887C-B2E6AD0178D2}">
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -3550,4 +3563,42 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9D80F3-6731-2D40-B480-F652CFF2EB0A}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="179.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>